--- a/SMU-CT.xlsx
+++ b/SMU-CT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quantum-Malloco\Investigacion_accidentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quantum-Malloco\ist_investiga\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F69C9-799D-43DF-AF49-5803B28ED880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B3828-75E6-4A83-B530-7964FAFA3C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3483,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I417"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,6 +3492,7 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
     <col min="7" max="7" width="35.85546875" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
   </cols>
@@ -15596,5 +15597,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>